--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9347" windowWidth="23040"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="498" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>caseId</t>
   </si>
@@ -61,269 +61,279 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>手机号码已被注册</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "17751810001", "pwd": "123457", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "", "pwd": "123458", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${mobile}", "pwd": "", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>手机号码格式不正确</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "177518d10779", "pwd": "123460", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
   </si>
   <si>
+    <t>密码长度少于6位</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${mobile}", "pwd": "12341", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>密码长度大于18位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobile}", "pwd": "123462123456123456s", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
+    <t>注册名为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${mobile}", "pwd": "123463", "regname": ""}</t>
+  </si>
+  <si>
+    <t>注册名不为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${mobile}", "pwd": "123463", "regname": "hhh"}</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${mobile}", "pwd": "123462123456123456s", "regname": "夜雨声烦"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "${mobile}", "pwd": "123464", "regname": ""}</t>
+  </si>
+  <si>
+    <t>正确账号，正确密码</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "17751810000", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>正确账号，错误密码</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "17751810000", "pwd": "123457"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>账号错误</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "1770000", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>不填账号</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "", "pwd": "123456"}</t>
+  </si>
+  <si>
+    <t>不填密码</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "17751810000", "pwd": ""}</t>
+  </si>
+  <si>
+    <t>pre_url</t>
+  </si>
+  <si>
+    <t>pre_param</t>
+  </si>
+  <si>
+    <t>获取正确cookie,然后正常充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000","amount":"500"}</t>
+  </si>
+  <si>
+    <t>{"code":"10001","msg":"充值成功","data":{"regname":"小蜜蜂","leaveamount":"500.00","type":"1","mobilephone":"17751810000"},"status":1}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '充值成功', 'code': '10001', 'data': {'regname': '小蜜蜂', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '25500.00', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'mobilephone': '17751810000'}}</t>
+  </si>
+  <si>
+    <t>获取非本人cookie，然后正常充值</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000","amount":"501"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"msg":"充值成功","code":"10001","data":{"regname":"小蜜蜂","mobilephone":"17751810000","type":"1","leaveamount":"1500.00"}}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '抱歉，请先登录。', 'code': None, 'data': None}</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>手机号码已被注册</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810001", "pwd": "123457", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>手机号码为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "", "pwd": "123458", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>密码为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${mobile}", "pwd": "", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>手机号码格式不正确</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "177518d10779", "pwd": "123460", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>密码长度少于6位</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${mobile}", "pwd": "12341", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
-  </si>
-  <si>
-    <t>密码长度大于18位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${mobile}", "pwd": "123462123456123456s", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>注册名为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${mobile}", "pwd": "123463", "regname": ""}</t>
-  </si>
-  <si>
-    <t>注册名不为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${mobile}", "pwd": "123463", "regname": "hhh"}</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${mobile}", "pwd": "123462123456123456s", "regname": "夜雨声烦"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${mobile}", "pwd": "123464", "regname": ""}</t>
-  </si>
-  <si>
-    <t>正确账号，正确密码</t>
-  </si>
-  <si>
-    <t>/member/login</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810000", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
-    <t>正确账号，错误密码</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810000", "pwd": "123457"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>账号错误</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "1770000", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>不填账号</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>不填密码</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810000", "pwd": ""}</t>
-  </si>
-  <si>
-    <t>pre_url</t>
-  </si>
-  <si>
-    <t>pre_param</t>
-  </si>
-  <si>
-    <t>获取正确cookie,然后正常充值</t>
-  </si>
-  <si>
-    <t>/member/recharge</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810000", "amount": "500"}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'msg': '充值成功', 'data': {'regname': '小蜜蜂', 'leaveamount': '500.00', 'id': 1114707, 'regtime': '2019-01-17 13:32:21.0', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000'}, 'status': 1}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114707,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17751810000","leaveamount":"8006.00","type":"1","regtime":"2019-01-17 13:32:21.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>获取非本人cookie，然后正常充值</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810779", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "17751810000", "amount": "501"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'msg': '充值成功', 'code': '10001', 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'type': '1', 'leaveamount': '1500.00', 'regtime': '2019-01-17 13:32:21.0', 'id': 1114707}}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114707,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17751810000","leaveamount":"8507.00","type":"1","regtime":"2019-01-17 13:32:21.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
     <t>获取正确cookie,手机号为空</t>
   </si>
   <si>
-    <t>{"mobilephone": "", "amount": "502"}</t>
-  </si>
-  <si>
-    <t>{'code': '20103', 'data': None, 'msg': '手机号不能为空', 'status': 0}</t>
+    <t>{"mobilephone":"","amount":"502"}</t>
+  </si>
+  <si>
+    <t>{"code":"20103","data":null,"msg":"手机号不能为空","status":0}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
   </si>
   <si>
-    <t>{"mobilephone": "17751810000", "amount": ""}</t>
-  </si>
-  <si>
-    <t>{'code': '20115', 'data': None, 'msg': '请输入金额', 'status': 0}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+    <t>{"mobilephone":"17751810000","amount":""}</t>
+  </si>
+  <si>
+    <t>{"code":"20115","data":null,"msg":"请输入金额","status":0}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '请输入金额', 'code': '20115', 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
   </si>
   <si>
-    <t>{"mobilephone": "17751810001", "amount": "504"}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'data': {'regtime': '2019-01-16 15:13:54.0', 'type': '1', 'leaveamount': '1.00', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'id': 1114643, 'mobilephone': '17751810001', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E'}, 'status': 1}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114643,"regname":"å¤é¨å£°ç¦","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17751810001","leaveamount":"3530.00","type":"1","regtime":"2019-01-16 15:13:54.0"},"msg":"充值成功"}</t>
+    <t>{"mobilephone":"17751810001","amount":"504"}</t>
+  </si>
+  <si>
+    <t>{"msg":"充值成功","code":"10001","data":{"type":"1","leaveamount":"1.00","mobilephone":"17751810001"},"status":1}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '充值成功', 'code': '10001', 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'leaveamount': '25200.00', 'regtime': '2019-01-21 10:30:31.0', 'id': 1115509, 'mobilephone': '17751810001'}}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
   </si>
   <si>
-    <t>{"mobilephone": "1775181000sss0", "amount": "505"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'msg': '手机号码格式不正确', 'code': '20109', 'data': None}</t>
+    <t>{"mobilephone":"1775181000sss0","amount":"505"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"msg":"手机号码格式不正确","code":"20109","data":null}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号码格式不正确', 'status': 0, 'code': '20109', 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
   </si>
   <si>
-    <t>{"mobilephone": "17751810000", "amount": "506.451"}</t>
-  </si>
-  <si>
-    <t>{'code': '20116', 'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'data': None}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+    <t>{"mobilephone":"17751810000","amount":"506.451"}</t>
+  </si>
+  <si>
+    <t>{"code":"20116","status":0,"msg":"输入金额的金额小数不能超过两位","data":null}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'code': '20116', 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
   </si>
   <si>
-    <t>{"mobilephone": "17751810000", "amount": "-507"}</t>
-  </si>
-  <si>
-    <t>{'code': '20117', 'msg': '请输入范围在0到50万之间的正数金额', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+    <t>{"mobilephone":"17751810000","amount":"-507"}</t>
+  </si>
+  <si>
+    <t>{"code":"20117","msg":"请输入范围在0到50万之间的正数金额","status":0,"data":null}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '请输入范围在0到50万之间的正数金额', 'code': '20117', 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
   </si>
   <si>
-    <t>{"mobilephone": "17751810000", "amount": "508000"}</t>
+    <t>{"mobilephone":"17751810000","amount":"508000"}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数填入非数字</t>
   </si>
   <si>
-    <t>{"mobilephone": "17751810000", "amount": "sss"}</t>
-  </si>
-  <si>
-    <t>{'code': '20118', 'msg': '请输入数字', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114707,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17751810000","leaveamount":"9007.00","type":"1","regtime":"2019-01-17 13:32:21.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114707,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17751810000","leaveamount":"9508.00","type":"1","regtime":"2019-01-17 13:32:21.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1114643,"regname":"å¤é¨å£°ç¦","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17751810001","leaveamount":"4034.00","type":"1","regtime":"2019-01-16 15:13:54.0"},"msg":"充值成功"}</t>
+    <t>{"mobilephone":"17751810000","amount":"sss"}</t>
+  </si>
+  <si>
+    <t>{"code":"20118","msg":"请输入数字","status":0,"data":null}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': '请输入数字', 'code': '20118', 'data': None}</t>
+  </si>
+  <si>
+    <t>{"code":"10001","msg":"充值成功","data":{"leaveamount":"500.00","type":"1","mobilephone":"17751810000"},"status":1}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '充值成功', 'code': '10001', 'data': {'regname': '小蜜蜂', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '26000.00', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'mobilephone': '17751810000'}}</t>
+  </si>
+  <si>
+    <t>{"status":1,"msg":"充值成功","code":"10001","data":{"mobilephone":"17751810000","type":"1","leaveamount":"1500.00"}}</t>
+  </si>
+  <si>
+    <t>{"msg":"充值成功","code":"10001","data":{ "type":"1","leaveamount":"1.00","mobilephone":"17751810001","status":1}</t>
+  </si>
+  <si>
+    <t>"{\"status\":1,\"code\":\"10001\",\"data\":{\"id\":1115509,\"regname\":\"\u00e5\u00a4\u009c\u00e9\u009b\u00a8\u00e5\u00a3\u00b0\u00e7\u0083\u00a6\",\"pwd\":\"F1887D3F9E6EE7A32FE5E76F4AB80D63\",\"mobilephone\":\"17751810001\",\"leaveamount\":\"12096.00\",\"type\":\"1\",\"regtime\":\"2019-01-21 10:30:31.0\"},\"msg\":\"\u5145\u503c\u6210\u529f\"}"</t>
   </si>
   <si>
     <t>${mobile}</t>
   </si>
   <si>
-    <t>19000000013</t>
+    <t>18813989035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="27">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,20 +343,20 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
@@ -360,7 +370,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
@@ -372,351 +382,35 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -724,251 +418,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="27" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="27" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="31" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,56 +455,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1339,11 +743,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1354,14 +759,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="21"/>
-    <col customWidth="1" max="4" min="4" style="1" width="30.3796296296296"/>
+    <col customWidth="1" max="4" min="4" style="1" width="19.125"/>
     <col customWidth="1" max="5" min="5" style="1" width="40.25"/>
     <col customWidth="1" max="6" min="6" style="1" width="24.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="25.1296296296296"/>
-    <col customWidth="1" max="8" min="8" style="1" width="18.6296296296296"/>
+    <col customWidth="1" max="7" min="7" style="1" width="25.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
@@ -1410,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
@@ -1421,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
@@ -1430,16 +835,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
@@ -1447,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -1456,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
@@ -1473,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -1482,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
@@ -1499,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -1508,16 +913,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
@@ -1525,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -1534,16 +939,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="8" s="1" spans="1:8">
@@ -1551,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -1560,16 +965,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
@@ -1577,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1586,16 +991,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
@@ -1603,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -1612,16 +1017,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
@@ -1632,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>10</v>
@@ -1644,10 +1049,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
@@ -1655,25 +1060,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
@@ -1681,25 +1086,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
@@ -1707,25 +1112,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
@@ -1733,25 +1138,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
@@ -1759,25 +1164,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="17" s="1" spans="1:8">
@@ -1785,25 +1190,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
@@ -1811,25 +1216,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
@@ -1837,30 +1242,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1875,16 +1280,16 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="19"/>
-    <col customWidth="1" max="4" min="4" style="1" width="41.6296296296296"/>
-    <col customWidth="1" max="5" min="5" style="1" width="30.8796296296296"/>
-    <col customWidth="1" max="6" min="6" style="1" width="52.8796296296296"/>
+    <col customWidth="1" max="4" min="4" style="1" width="15.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="30.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
     <col customWidth="1" max="7" min="7" style="1" width="46.5"/>
   </cols>
   <sheetData>
@@ -1919,25 +1324,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" s="1" spans="1:8">
@@ -1945,25 +1350,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="4" s="1" spans="1:8">
@@ -1971,25 +1376,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
@@ -1997,25 +1402,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="6" s="1" spans="1:8">
@@ -2023,25 +1428,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="7" s="1" spans="1:8">
@@ -2049,25 +1454,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="8" s="1" spans="1:8">
@@ -2075,25 +1480,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="9" s="1" spans="1:8">
@@ -2101,25 +1506,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="10" s="1" spans="1:8">
@@ -2127,25 +1532,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="11" s="1" spans="1:8">
@@ -2153,25 +1558,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2188,17 +1593,17 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="F76" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="28.3796296296296"/>
-    <col customWidth="1" max="5" min="5" style="1" width="29.8796296296296"/>
-    <col customWidth="1" max="6" min="6" style="2" width="29.1296296296296"/>
-    <col customWidth="1" max="7" min="7" style="1" width="44.1296296296296"/>
+    <col customWidth="1" max="4" min="4" style="1" width="16.25"/>
+    <col customWidth="1" max="5" min="5" style="1" width="29.875"/>
+    <col customWidth="1" max="6" min="6" style="2" width="19.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="44.125"/>
     <col customWidth="1" max="8" min="8" style="1" width="44.25"/>
     <col customWidth="1" max="9" min="9" style="1" width="27.75"/>
   </cols>
@@ -2214,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2240,16 +1645,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>55</v>
@@ -2264,7 +1669,7 @@
         <v>58</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="90" r="3" s="1" spans="1:10">
@@ -2278,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>60</v>
@@ -2296,7 +1701,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="4" s="1" spans="1:10">
@@ -2304,31 +1709,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
@@ -2336,31 +1741,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="105" r="6" s="1" spans="1:10">
@@ -2368,31 +1773,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="7" s="1" spans="1:10">
@@ -2400,31 +1805,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
@@ -2432,31 +1837,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="9" s="1" spans="1:10">
@@ -2464,31 +1869,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="10" s="1" spans="1:10">
@@ -2496,31 +1901,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
@@ -2528,31 +1933,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="90" r="12" s="1" spans="1:10">
@@ -2560,16 +1965,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>55</v>
@@ -2578,13 +1983,13 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="49.5" r="13" s="1" spans="1:10">
@@ -2595,10 +2000,10 @@
         <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>60</v>
@@ -2610,13 +2015,13 @@
         <v>61</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="14" s="1" spans="1:10">
@@ -2624,31 +2029,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="15" s="1" spans="1:10">
@@ -2656,31 +2061,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="68.25" r="16" s="1" spans="1:10">
@@ -2688,31 +2093,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="17" s="1" spans="1:10">
@@ -2720,31 +2125,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
@@ -2752,31 +2157,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="19" s="1" spans="1:10">
@@ -2784,31 +2189,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="20" s="1" spans="1:10">
@@ -2816,31 +2221,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I20" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="21" s="1" spans="1:10">
@@ -2848,31 +2253,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +2298,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
@@ -2911,7 +2316,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
@@ -2929,7 +2334,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
@@ -2947,7 +2352,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="10.25"/>
     <col customWidth="1" max="2" min="2" style="1" width="12.75"/>
@@ -2955,10 +2360,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_workspace\api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="list" sheetId="5" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" r:id="rId6"/>
+    <sheet name="init" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>caseId</t>
   </si>
@@ -196,7 +201,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'regname': '小蜜蜂', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '69543.00'}}</t>
+    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '71545.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +216,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'regname': '小蜜蜂', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '70044.00'}}</t>
+    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '72046.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -223,7 +228,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'code': '20103', 'status': 0, 'msg': '手机号不能为空', 'data': None}</t>
+    <t>{'status': 0, 'msg': '手机号不能为空', 'data': None, 'code': '20103'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -235,7 +240,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'code': '20115', 'status': 0, 'msg': '请输入金额', 'data': None}</t>
+    <t>{'status': 0, 'msg': '请输入金额', 'data': None, 'code': '20115'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -247,7 +252,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'id': 1115509, 'regtime': '2019-01-21 10:30:31.0', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'leaveamount': '47880.00'}}</t>
+    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115509, 'leaveamount': '48888.00', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -259,7 +264,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'code': '20109', 'status': 0, 'msg': '手机号码格式不正确', 'data': None}</t>
+    <t>{'status': 0, 'msg': '手机号码格式不正确', 'data': None, 'code': '20109'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -271,7 +276,7 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
-    <t>{'code': '20116', 'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'data': None}</t>
+    <t>{'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'data': None, 'code': '20116'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
@@ -283,7 +288,7 @@
     <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'code': '20117', 'status': 0, 'msg': '请输入范围在0到50万之间的正数金额', 'data': None}</t>
+    <t>{'status': 0, 'msg': '请输入范围在0到50万之间的正数金额', 'data': None, 'code': '20117'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
@@ -301,107 +306,639 @@
     <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'code': '20118', 'status': 0, 'msg': '请输入数字', 'data': None}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'regname': '小蜜蜂', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '70544.00'}}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'regname': '小蜜蜂', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '71045.00'}}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'id': 1115509, 'regtime': '2019-01-21 10:30:31.0', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'leaveamount': '48384.00'}}</t>
+    <t>{'status': 0, 'msg': '请输入数字', 'data': None, 'code': '20118'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '72546.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '73047.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115509, 'leaveamount': '49392.00', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001'}</t>
   </si>
   <si>
     <t>${mobile}</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"5"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不登录直接取现</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常登录后取现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余额充足</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'status': 1, 'code': '10001', 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取现成功</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'data': {'type': '1','mobilephone':'17751810779'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现金额为空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":null,"amount":"5"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号不能为空</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'status': 0, 'code': '20103', 'data': None}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'status': 0, 'data': None, 'code': None, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抱歉，请先登录。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入金额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'status': 0, 'code': '20115', 'data': None}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":null}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此手机号对应的会员不存在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现的手机号码不存在</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式不正确</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'code': '20109', 'data': None, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机号码格式不正确</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'status': 0}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现金额小数点大于2位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入金额的金额小数不能超过两位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现金额为负数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'data': None, 'status': 0, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入范围在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万之间的正数金额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'code': '20117'}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"-50"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现金额大于50万</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"500001"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'data': None, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入范围在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万之间的正数金额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'code': '20117', 'status': 0}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现金额非数字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"ssss"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取现余额不足</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"500000"}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '请输入数字', 'code': '20118'}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '请输入数字', 'code': '20118'}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
-      <sz val="9"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -417,52 +954,70 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -752,28 +1307,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="21"/>
-    <col customWidth="1" max="4" min="4" style="1" width="30.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="40.25"/>
-    <col customWidth="1" max="6" min="6" style="1" width="24.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="25.125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="18.625"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -799,8 +1350,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -825,8 +1376,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -851,8 +1402,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -877,8 +1428,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -903,8 +1454,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -929,8 +1480,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -955,8 +1506,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="8" s="1" spans="1:8">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -981,8 +1532,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1007,8 +1558,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1033,8 +1584,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1059,8 +1610,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1085,8 +1636,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1111,8 +1662,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1137,8 +1688,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1163,8 +1714,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1189,8 +1740,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="17" s="1" spans="1:8">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1215,8 +1766,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1241,8 +1792,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1268,36 +1819,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="19"/>
-    <col customWidth="1" max="4" min="4" style="1" width="41.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="30.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="46.5"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1871,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1349,8 +1897,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" s="1" spans="1:8">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1375,8 +1923,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" s="1" spans="1:8">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1401,8 +1949,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1427,8 +1975,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="6" s="1" spans="1:8">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1453,8 +2001,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="7" s="1" spans="1:8">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1479,8 +2027,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="8" s="1" spans="1:8">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1505,8 +2053,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="9" s="1" spans="1:8">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1531,8 +2079,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" s="1" spans="1:8">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1557,8 +2105,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="1" spans="1:8">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1584,35 +2132,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="28.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="29.875"/>
-    <col customWidth="1" max="6" min="6" style="10" width="29.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="44.125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="56.75"/>
-    <col customWidth="1" max="9" min="9" style="1" width="27.75"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="44.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:10">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1644,8 +2189,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="66" r="2" s="1" spans="1:10">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1676,8 +2221,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="90" r="3" s="1" spans="1:10">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1708,8 +2253,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" s="1" spans="1:10">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1740,8 +2285,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1772,8 +2317,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="105" r="6" s="1" spans="1:10">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1804,8 +2349,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="7" s="1" spans="1:10">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1836,8 +2381,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1868,8 +2413,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="9" s="1" spans="1:10">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1900,8 +2445,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" s="1" spans="1:10">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1932,8 +2477,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1964,8 +2509,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="90" r="12" s="1" spans="1:10">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1996,8 +2541,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="49.5" r="13" s="1" spans="1:10">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2028,8 +2573,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="14" s="1" spans="1:10">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2060,8 +2605,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="15" s="1" spans="1:10">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2092,8 +2637,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="68.25" r="16" s="1" spans="1:10">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2124,8 +2669,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="17" s="1" spans="1:10">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2156,8 +2701,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2188,8 +2733,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="19" s="1" spans="1:10">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2220,8 +2765,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="20" s="1" spans="1:10">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2252,8 +2797,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="21" s="1" spans="1:10">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2285,92 +2830,717 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.25"/>
-    <col customWidth="1" max="2" min="2" style="1" width="12.75"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>17751810578</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_workspace\api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="3"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="list" sheetId="5" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" r:id="rId6"/>
-    <sheet name="init" sheetId="7" r:id="rId7"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>caseId</t>
   </si>
@@ -318,627 +313,237 @@
     <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115509, 'leaveamount': '49392.00', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001'}</t>
   </si>
   <si>
+    <t>不登录直接取现</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"5"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '抱歉，请先登录。', 'code': None}</t>
+  </si>
+  <si>
+    <t>正常登录后取现(余额充足)</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
+  </si>
+  <si>
+    <t>{'data': {'regname': '小蜜蜂', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499775.00', 'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0'}, 'status': 1, 'msg': '取现成功', 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":None,"amount":"5"}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '手机号不能为空', 'code': '20103'}</t>
+  </si>
+  <si>
+    <t>取现金额为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":None}</t>
+  </si>
+  <si>
+    <t>{'msg': '请输入金额', 'status': 0, 'code': '20115', 'data': None}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '请输入金额', 'code': '20115'}</t>
+  </si>
+  <si>
+    <t>取现的手机号码不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 1, 'msg': '此手机号对应的会员不存在', 'code': '20104'}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
+  </si>
+  <si>
+    <t>{'code': '20109', 'data': None, 'msg': '手机号码格式不正确', 'status': 0}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '手机号码格式不正确', 'code': '20109'}</t>
+  </si>
+  <si>
+    <t>取现金额小数点大于2位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'code': '20116'}</t>
+  </si>
+  <si>
+    <t>取现金额为负数</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"-50"}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '请输入范围在0到50万之间的正数金额', 'code': '20117'}</t>
+  </si>
+  <si>
+    <t>取现金额大于50万</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"500001"}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'msg': '请输入范围在0到50万之间的正数金额', 'code': '20117', 'status': 0}</t>
+  </si>
+  <si>
+    <t>取现金额非数字</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"ssss"}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 0, 'msg': '请输入数字', 'code': '20118'}</t>
+  </si>
+  <si>
+    <t>取现余额不足</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"500000"}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
+  </si>
+  <si>
+    <t>{'data': None, 'status': 1, 'msg': '余额不足，请修改提现额度', 'code': '20119'}</t>
+  </si>
+  <si>
+    <t>{'data': {'regname': '小蜜蜂', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499770.00', 'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0'}, 'status': 1, 'msg': '取现成功', 'code': '10001'}</t>
+  </si>
+  <si>
     <t>${mobile}</t>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/withdraw</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"5"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不登录直接取现</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常登录后取现</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余额充足</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'status': 1, 'code': '10001', 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取现成功</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'data': {'type': '1','mobilephone':'17751810779'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现金额为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":null,"amount":"5"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号不能为空</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'status': 0, 'code': '20103', 'data': None}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'status': 0, 'data': None, 'code': None, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抱歉，请先登录。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请输入金额</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'status': 0, 'code': '20115', 'data': None}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":null}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>此手机号对应的会员不存在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现的手机号码不存在</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码格式不正确</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'code': '20109', 'data': None, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>手机号码格式不正确</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'status': 0}</t>
-    </r>
-  </si>
-  <si>
-    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现金额小数点大于2位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入金额的金额小数不能超过两位</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现金额为负数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'data': None, 'status': 0, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请输入范围在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万之间的正数金额</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'code': '20117'}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"-50"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现金额大于50万</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"500001"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{'data': None, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请输入范围在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万之间的正数金额</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>', 'code': '20117', 'status': 0}</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现金额非数字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"ssss"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取现余额不足</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"500000"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data': None, 'status': 0, 'msg': '请输入数字', 'code': '20118'}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data': None, 'status': 0, 'msg': '请输入数字', 'code': '20118'}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="13">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
-      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -954,70 +559,61 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1307,24 +903,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="21"/>
+    <col customWidth="1" max="4" min="4" style="1" width="30.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="40.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="24.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="25.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1350,8 +950,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1376,8 +976,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1402,8 +1002,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1428,8 +1028,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1454,8 +1054,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1480,8 +1080,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1506,8 +1106,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+    <row customHeight="1" ht="45" r="8" s="1" spans="1:8">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1532,8 +1132,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1558,8 +1158,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1584,8 +1184,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1610,8 +1210,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1636,8 +1236,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+    <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1662,8 +1262,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1688,8 +1288,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1714,8 +1314,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1740,8 +1340,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+    <row customHeight="1" ht="45" r="17" s="1" spans="1:8">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1766,8 +1366,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1792,8 +1392,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1819,33 +1419,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19"/>
+    <col customWidth="1" max="4" min="4" style="1" width="41.625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="30.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="46.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1871,8 +1474,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="42.75" r="2" s="1" spans="1:8">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1897,8 +1500,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="30" r="3" s="1" spans="1:8">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1923,8 +1526,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="30" r="4" s="1" spans="1:8">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1949,8 +1552,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1975,8 +1578,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="30" r="6" s="1" spans="1:8">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2001,8 +1604,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="30" r="7" s="1" spans="1:8">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2027,8 +1630,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="30" r="8" s="1" spans="1:8">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2053,8 +1656,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="30" r="9" s="1" spans="1:8">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2079,8 +1682,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row customHeight="1" ht="30" r="10" s="1" spans="1:8">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2105,8 +1708,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:8">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2132,32 +1735,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="44.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="56.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="28.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="29.875"/>
+    <col customWidth="1" max="6" min="6" style="10" width="29.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="44.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="56.75"/>
+    <col customWidth="1" max="9" min="9" style="1" width="27.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2189,8 +1795,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="66" r="2" s="1" spans="1:10">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2221,8 +1827,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="90" r="3" s="1" spans="1:10">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2253,8 +1859,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="30" r="4" s="1" spans="1:10">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2285,8 +1891,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2317,8 +1923,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="105" r="6" s="1" spans="1:10">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2349,8 +1955,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="30" r="7" s="1" spans="1:10">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2381,8 +1987,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2413,8 +2019,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="30" r="9" s="1" spans="1:10">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2445,8 +2051,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row customHeight="1" ht="30" r="10" s="1" spans="1:10">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2477,8 +2083,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2509,8 +2115,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row customHeight="1" ht="90" r="12" s="1" spans="1:10">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2541,8 +2147,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row customHeight="1" ht="49.5" r="13" s="1" spans="1:10">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2573,8 +2179,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row customHeight="1" ht="30" r="14" s="1" spans="1:10">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2605,8 +2211,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row customHeight="1" ht="30" r="15" s="1" spans="1:10">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2637,8 +2243,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row customHeight="1" ht="68.25" r="16" s="1" spans="1:10">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2669,8 +2275,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row customHeight="1" ht="30" r="17" s="1" spans="1:10">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2701,8 +2307,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2733,8 +2339,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row customHeight="1" ht="30" r="19" s="1" spans="1:10">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2765,8 +2371,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row customHeight="1" ht="30" r="20" s="1" spans="1:10">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2797,8 +2403,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row customHeight="1" ht="30" r="21" s="1" spans="1:10">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2830,33 +2436,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="32.625" customWidth="1"/>
-    <col min="8" max="8" width="28.875" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="12.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="14.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="24.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.5"/>
+    <col customWidth="1" max="7" min="7" style="1" width="32.625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="28.875"/>
+    <col customWidth="1" max="9" min="9" style="1" width="26.375"/>
+    <col customWidth="1" max="10" min="10" style="1" width="11.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="30.75" r="1" s="12" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2888,161 +2498,181 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="30" r="2" s="1" spans="1:10">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="I2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="60" r="3" s="1" spans="1:10">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="I3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="4" s="1" spans="1:10">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="I5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="6" s="1" spans="1:10">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="I6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="7" s="1" spans="1:10">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>99</v>
@@ -3051,298 +2681,350 @@
         <v>118</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+        <v>119</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="8" s="1" spans="1:10">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+        <v>123</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="9" s="1" spans="1:10">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+        <v>127</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="10" s="1" spans="1:10">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="J10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+        <v>133</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="12" s="1" spans="1:10">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="J12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="13" s="1" spans="1:10">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="I13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="60" r="14" s="1" spans="1:10">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="15" s="1" spans="1:10">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="16" s="1" spans="1:10">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="17" s="1" spans="1:10">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="18" s="1" spans="1:10">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>99</v>
@@ -3351,196 +3033,244 @@
         <v>118</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A19">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="19" s="1" spans="1:10">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A20">
+        <v>123</v>
+      </c>
+      <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="20" s="1" spans="1:10">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A21">
+        <v>127</v>
+      </c>
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="21" s="1" spans="1:10">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="22" s="1" spans="1:10">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="23" s="1" spans="1:10">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="I23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1">
+        <v>139</v>
+      </c>
+      <c r="B1" t="n">
         <v>17751810578</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_workspace\api-test\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="list" sheetId="5" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" r:id="rId6"/>
+    <sheet name="init" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="135">
   <si>
     <t>caseId</t>
   </si>
@@ -196,7 +201,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '71545.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '73547.00'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +216,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '72046.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '74048.00'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -223,7 +228,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '手机号不能为空', 'data': None, 'code': '20103'}</t>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -235,7 +240,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '请输入金额', 'data': None, 'code': '20115'}</t>
+    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -247,7 +252,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115509, 'leaveamount': '48888.00', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'id': 1115509, 'regtime': '2019-01-21 10:30:31.0', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'leaveamount': '49896.00'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -259,7 +264,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '手机号码格式不正确', 'data': None, 'code': '20109'}</t>
+    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -271,7 +276,7 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'data': None, 'code': '20116'}</t>
+    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
@@ -283,7 +288,7 @@
     <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '请输入范围在0到50万之间的正数金额', 'data': None, 'code': '20117'}</t>
+    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
@@ -301,16 +306,16 @@
     <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': '请输入数字', 'data': None, 'code': '20118'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '72546.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115516, 'leaveamount': '73047.00', 'type': '1', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'msg': '充值成功', 'data': {'id': 1115509, 'leaveamount': '49392.00', 'type': '1', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001'}</t>
+    <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '74548.00'}, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '75049.00'}, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'id': 1115509, 'regtime': '2019-01-21 10:30:31.0', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'leaveamount': '50400.00'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>不登录直接取现</t>
@@ -328,7 +333,7 @@
     <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
-    <t>{'data': None, 'status': 0, 'msg': '抱歉，请先登录。', 'code': None}</t>
+    <t>{'status': 0, 'code': None, 'data': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
     <t>正常登录后取现(余额充足)</t>
@@ -340,7 +345,7 @@
     <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
   </si>
   <si>
-    <t>{'data': {'regname': '小蜜蜂', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499775.00', 'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0'}, 'status': 1, 'msg': '取现成功', 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'id': 1115661, 'regtime': '2019-01-21 18:01:06.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499765.00'}, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>{"mobilephone":None,"amount":"5"}</t>
@@ -349,9 +354,6 @@
     <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
   </si>
   <si>
-    <t>{'data': None, 'status': 0, 'msg': '手机号不能为空', 'code': '20103'}</t>
-  </si>
-  <si>
     <t>取现金额为空</t>
   </si>
   <si>
@@ -361,9 +363,6 @@
     <t>{'msg': '请输入金额', 'status': 0, 'code': '20115', 'data': None}</t>
   </si>
   <si>
-    <t>{'data': None, 'status': 0, 'msg': '请输入金额', 'code': '20115'}</t>
-  </si>
-  <si>
     <t>取现的手机号码不存在</t>
   </si>
   <si>
@@ -373,30 +372,18 @@
     <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{'data': None, 'status': 1, 'msg': '此手机号对应的会员不存在', 'code': '20104'}</t>
-  </si>
-  <si>
     <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
   </si>
   <si>
     <t>{'code': '20109', 'data': None, 'msg': '手机号码格式不正确', 'status': 0}</t>
   </si>
   <si>
-    <t>{'data': None, 'status': 0, 'msg': '手机号码格式不正确', 'code': '20109'}</t>
-  </si>
-  <si>
     <t>取现金额小数点大于2位</t>
   </si>
   <si>
     <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
-  </si>
-  <si>
-    <t>{'data': None, 'status': 0, 'msg': '输入金额的金额小数不能超过两位', 'code': '20116'}</t>
-  </si>
-  <si>
     <t>取现金额为负数</t>
   </si>
   <si>
@@ -433,117 +420,156 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'data': None, 'status': 1, 'msg': '余额不足，请修改提现额度', 'code': '20119'}</t>
-  </si>
-  <si>
-    <t>{'data': {'regname': '小蜜蜂', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499770.00', 'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0'}, 'status': 1, 'msg': '取现成功', 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '20119', 'data': None, 'msg': '余额不足，请修改提现额度'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'id': 1115661, 'regtime': '2019-01-21 18:01:06.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499760.00'}, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>${mobile}</t>
+  </si>
+  <si>
+    <r>
+      <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入范围在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万之间的正数金额</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -558,62 +584,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -903,28 +922,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="21"/>
-    <col customWidth="1" max="4" min="4" style="1" width="30.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="40.25"/>
-    <col customWidth="1" max="6" min="6" style="1" width="24.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="25.125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="18.625"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,17 +965,17 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -976,17 +991,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1002,17 +1017,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1028,17 +1043,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1054,17 +1069,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1080,17 +1095,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1106,17 +1121,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="8" s="1" spans="1:8">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1132,17 +1147,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1158,17 +1173,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1184,17 +1199,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1210,17 +1225,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1236,17 +1251,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1262,17 +1277,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1288,17 +1303,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1314,17 +1329,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1340,17 +1355,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="17" s="1" spans="1:8">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1366,17 +1381,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1392,17 +1407,17 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1419,36 +1434,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="19"/>
-    <col customWidth="1" max="4" min="4" style="1" width="41.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="30.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="46.5"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1474,8 +1486,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1500,8 +1512,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3" s="1" spans="1:8">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1526,8 +1538,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" s="1" spans="1:8">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1552,8 +1564,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1578,8 +1590,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="6" s="1" spans="1:8">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1604,8 +1616,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="7" s="1" spans="1:8">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1630,8 +1642,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="8" s="1" spans="1:8">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1656,8 +1668,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="9" s="1" spans="1:8">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1682,8 +1694,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" s="1" spans="1:8">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1708,8 +1720,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="1" spans="1:8">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1735,35 +1747,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="28.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="29.875"/>
-    <col customWidth="1" max="6" min="6" style="10" width="29.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="44.125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="56.75"/>
-    <col customWidth="1" max="9" min="9" style="1" width="27.75"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:10">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1788,7 @@
       <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1795,8 +1804,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="66" r="2" s="1" spans="1:10">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1811,7 +1820,7 @@
       <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1827,8 +1836,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="90" r="3" s="1" spans="1:10">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1843,7 +1852,7 @@
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1859,8 +1868,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" s="1" spans="1:10">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1875,7 +1884,7 @@
       <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1891,8 +1900,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1907,7 +1916,7 @@
       <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1923,8 +1932,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="105" r="6" s="1" spans="1:10">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1939,7 +1948,7 @@
       <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1955,8 +1964,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="7" s="1" spans="1:10">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1971,7 +1980,7 @@
       <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1987,8 +1996,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2003,7 +2012,7 @@
       <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2019,8 +2028,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="9" s="1" spans="1:10">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2035,7 +2044,7 @@
       <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2051,8 +2060,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="10" s="1" spans="1:10">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2067,7 +2076,7 @@
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2083,8 +2092,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2099,7 +2108,7 @@
       <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -2115,8 +2124,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="90" r="12" s="1" spans="1:10">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2131,7 +2140,7 @@
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2140,15 +2149,15 @@
       <c r="H12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="49.5" r="13" s="1" spans="1:10">
-      <c r="A13" s="3" t="n">
+      <c r="J12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2163,7 +2172,7 @@
       <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2172,15 +2181,15 @@
       <c r="H13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="14" s="1" spans="1:10">
-      <c r="A14" s="3" t="n">
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2195,7 +2204,7 @@
       <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2204,15 +2213,15 @@
       <c r="H14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="15" s="1" spans="1:10">
-      <c r="A15" s="3" t="n">
+      <c r="J14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2227,7 +2236,7 @@
       <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2236,15 +2245,15 @@
       <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="68.25" r="16" s="1" spans="1:10">
-      <c r="A16" s="3" t="n">
+      <c r="J15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2259,7 +2268,7 @@
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -2268,15 +2277,15 @@
       <c r="H16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="17" s="1" spans="1:10">
-      <c r="A17" s="3" t="n">
+      <c r="J16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2291,7 +2300,7 @@
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2300,15 +2309,15 @@
       <c r="H17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
-      <c r="A18" s="3" t="n">
+      <c r="J17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2323,7 +2332,7 @@
       <c r="E18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -2332,15 +2341,15 @@
       <c r="H18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="19" s="1" spans="1:10">
-      <c r="A19" s="3" t="n">
+      <c r="J18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2355,7 +2364,7 @@
       <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -2364,15 +2373,15 @@
       <c r="H19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="20" s="1" spans="1:10">
-      <c r="A20" s="3" t="n">
+      <c r="J19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2387,7 +2396,7 @@
       <c r="E20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -2396,15 +2405,15 @@
       <c r="H20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="21" s="1" spans="1:10">
-      <c r="A21" s="3" t="n">
+      <c r="J20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2419,7 +2428,7 @@
       <c r="E21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -2428,78 +2437,75 @@
       <c r="H21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="12.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.875"/>
-    <col customWidth="1" max="4" min="4" style="1" width="14.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="24.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="17.5"/>
-    <col customWidth="1" max="7" min="7" style="1" width="32.625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="28.875"/>
-    <col customWidth="1" max="9" min="9" style="1" width="26.375"/>
-    <col customWidth="1" max="10" min="10" style="1" width="11.875"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="30.75" r="1" s="12" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="1" spans="1:10">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2530,8 +2536,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="60" r="3" s="1" spans="1:10">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2562,11 +2568,11 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="4" s="1" spans="1:10">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2588,18 +2594,18 @@
         <v>108</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -2614,24 +2620,24 @@
         <v>99</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="6" s="1" spans="1:10">
-      <c r="A6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -2645,24 +2651,24 @@
       <c r="F6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>115</v>
+      <c r="G6" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="7" s="1" spans="1:10">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2677,25 +2683,25 @@
       <c r="F7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>118</v>
+      <c r="G7" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="8" s="1" spans="1:10">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>121</v>
+      <c r="B8" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -2710,24 +2716,24 @@
         <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="9" s="1" spans="1:10">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>125</v>
+      <c r="B9" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -2742,24 +2748,24 @@
         <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="10" s="1" spans="1:10">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>128</v>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -2774,24 +2780,24 @@
         <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>131</v>
+      <c r="B11" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -2806,24 +2812,24 @@
         <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="12" s="1" spans="1:10">
-      <c r="A12" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -2838,20 +2844,20 @@
         <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="13" s="1" spans="1:10">
-      <c r="A13" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2875,15 +2881,15 @@
       <c r="H13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="60" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2907,18 +2913,18 @@
       <c r="H14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+      <c r="I14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2939,19 +2945,19 @@
       <c r="H15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
@@ -2966,24 +2972,24 @@
         <v>99</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -2997,24 +3003,24 @@
       <c r="F17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>115</v>
+      <c r="G17" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+        <v>114</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3029,25 +3035,25 @@
       <c r="F18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>118</v>
+      <c r="G18" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+        <v>116</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>121</v>
+      <c r="B19" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
@@ -3062,24 +3068,24 @@
         <v>99</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+        <v>83</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>125</v>
+      <c r="B20" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
@@ -3094,24 +3100,24 @@
         <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+        <v>121</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>128</v>
+      <c r="B21" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -3126,24 +3132,24 @@
         <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+        <v>124</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>131</v>
+      <c r="B22" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -3158,24 +3164,24 @@
         <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+        <v>127</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -3190,87 +3196,75 @@
         <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.25"/>
-    <col customWidth="1" max="2" min="2" style="1" width="12.75"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B1">
         <v>17751810578</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_workspace\api-test\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345" activeTab="3"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="list" sheetId="5" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" r:id="rId6"/>
-    <sheet name="init" sheetId="7" r:id="rId7"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>caseId</t>
   </si>
@@ -201,7 +196,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '73547.00'}, 'msg': '充值成功'}</t>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '75549.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -216,7 +211,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '74048.00'}, 'msg': '充值成功'}</t>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '76050.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -228,7 +223,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
+    <t>{'code': '20103', 'data': None, 'msg': '手机号不能为空', 'status': 0}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -240,7 +235,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
+    <t>{'code': '20115', 'data': None, 'msg': '请输入金额', 'status': 0}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -252,7 +247,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'id': 1115509, 'regtime': '2019-01-21 10:30:31.0', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'leaveamount': '49896.00'}, 'msg': '充值成功'}</t>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '50904.00', 'type': '1', 'mobilephone': '17751810001'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -264,7 +259,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
+    <t>{'code': '20109', 'data': None, 'msg': '手机号码格式不正确', 'status': 0}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -276,114 +271,117 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
+    <t>{'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位', 'status': 0}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数小于0</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"-507"}</t>
+  </si>
+  <si>
+    <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
+  </si>
+  <si>
+    <t>{'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额', 'status': 0}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数大于500,000</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"508000"}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数填入非数字</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"sss"}</t>
+  </si>
+  <si>
+    <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
+  </si>
+  <si>
+    <t>{'code': '20118', 'data': None, 'msg': '请输入数字', 'status': 0}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '76550.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '77051.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '51408.00', 'type': '1', 'mobilephone': '17751810001'}, 'msg': '充值成功', 'status': 1}</t>
+  </si>
+  <si>
+    <t>不登录直接取现</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"5"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
+  </si>
+  <si>
+    <t>{'code': None, 'data': None, 'msg': '抱歉，请先登录。', 'status': 0}</t>
+  </si>
+  <si>
+    <t>正常登录后取现(余额充足)</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499755.00', 'type': '1', 'mobilephone': '17751810779'}, 'msg': '取现成功', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":None,"amount":"5"}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
+  </si>
+  <si>
+    <t>取现金额为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":None}</t>
+  </si>
+  <si>
+    <t>{'msg': '请输入金额', 'status': 0, 'code': '20115', 'data': None}</t>
+  </si>
+  <si>
+    <t>取现的手机号码不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
+  </si>
+  <si>
+    <t>{'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
+  </si>
+  <si>
+    <t>取现金额小数点大于2位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
+  </si>
+  <si>
     <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
   </si>
   <si>
-    <t>获取正确cookie,充值金额参数小于0</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"-507"}</t>
-  </si>
-  <si>
-    <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
-  </si>
-  <si>
-    <t>获取正确cookie,充值金额参数大于500,000</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"508000"}</t>
-  </si>
-  <si>
-    <t>获取正确cookie,充值金额参数填入非数字</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"sss"}</t>
-  </si>
-  <si>
-    <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '74548.00'}, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'id': 1115516, 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '75049.00'}, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'id': 1115509, 'regtime': '2019-01-21 10:30:31.0', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'leaveamount': '50400.00'}, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>不登录直接取现</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>/member/withdraw</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"5"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'code': None, 'data': None, 'msg': '抱歉，请先登录。'}</t>
-  </si>
-  <si>
-    <t>正常登录后取现(余额充足)</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'id': 1115661, 'regtime': '2019-01-21 18:01:06.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499765.00'}, 'msg': '取现成功'}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":None,"amount":"5"}</t>
-  </si>
-  <si>
-    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
-  </si>
-  <si>
-    <t>取现金额为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":None}</t>
-  </si>
-  <si>
-    <t>{'msg': '请输入金额', 'status': 0, 'code': '20115', 'data': None}</t>
-  </si>
-  <si>
-    <t>取现的手机号码不存在</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
-  </si>
-  <si>
-    <t>{'code': '20109', 'data': None, 'msg': '手机号码格式不正确', 'status': 0}</t>
-  </si>
-  <si>
-    <t>取现金额小数点大于2位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
-  </si>
-  <si>
     <t>取现金额为负数</t>
   </si>
   <si>
@@ -420,156 +418,88 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'status': 1, 'code': '20119', 'data': None, 'msg': '余额不足，请修改提现额度'}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'id': 1115661, 'regtime': '2019-01-21 18:01:06.0', 'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'leaveamount': '499760.00'}, 'msg': '取现成功'}</t>
+    <t>{'code': '20119', 'data': None, 'msg': '余额不足，请修改提现额度', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499750.00', 'type': '1', 'mobilephone': '17751810779'}, 'msg': '取现成功', 'status': 1}</t>
   </si>
   <si>
     <t>${mobile}</t>
-  </si>
-  <si>
-    <r>
-      <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请输入范围在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万之间的正数金额</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -585,54 +515,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -922,24 +843,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="21"/>
+    <col customWidth="1" max="4" min="4" style="1" width="30.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="40.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="24.75"/>
+    <col customWidth="1" max="7" min="7" style="1" width="25.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +890,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -991,8 +916,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1017,8 +942,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1043,8 +968,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1069,8 +994,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1095,8 +1020,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1121,8 +1046,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="45" r="8" s="1" spans="1:8">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1147,8 +1072,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1173,8 +1098,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1199,8 +1124,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1225,8 +1150,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1251,8 +1176,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1277,8 +1202,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1303,8 +1228,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1329,8 +1254,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1355,8 +1280,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row customHeight="1" ht="45" r="17" s="1" spans="1:8">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1381,8 +1306,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1407,8 +1332,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1434,33 +1359,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19"/>
+    <col customWidth="1" max="4" min="4" style="1" width="41.625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="30.875"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="46.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1486,8 +1414,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="42.75" r="2" s="1" spans="1:8">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1512,8 +1440,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="30" r="3" s="1" spans="1:8">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1538,8 +1466,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="30" r="4" s="1" spans="1:8">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1564,8 +1492,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1590,8 +1518,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="30" r="6" s="1" spans="1:8">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1616,8 +1544,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="30" r="7" s="1" spans="1:8">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1642,8 +1570,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="30" r="8" s="1" spans="1:8">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1668,8 +1596,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="30" r="9" s="1" spans="1:8">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1694,8 +1622,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row customHeight="1" ht="30" r="10" s="1" spans="1:8">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1720,8 +1648,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:8">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1747,32 +1675,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="44.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="56.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="28.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="29.875"/>
+    <col customWidth="1" max="6" min="6" style="7" width="29.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="44.125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="56.75"/>
+    <col customWidth="1" max="9" min="9" style="1" width="27.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="14.25" r="1" s="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1804,8 +1735,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="66" r="2" s="1" spans="1:10">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1836,8 +1767,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="90" r="3" s="1" spans="1:10">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1868,8 +1799,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="30" r="4" s="1" spans="1:10">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1900,8 +1831,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1932,8 +1863,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="105" r="6" s="1" spans="1:10">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1964,8 +1895,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="30" r="7" s="1" spans="1:10">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1996,8 +1927,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2028,8 +1959,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="30" r="9" s="1" spans="1:10">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2060,8 +1991,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row customHeight="1" ht="30" r="10" s="1" spans="1:10">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2092,8 +2023,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2124,8 +2055,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row customHeight="1" ht="90" r="12" s="1" spans="1:10">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2156,8 +2087,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row customHeight="1" ht="49.5" r="13" s="1" spans="1:10">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2188,8 +2119,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row customHeight="1" ht="30" r="14" s="1" spans="1:10">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2220,8 +2151,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row customHeight="1" ht="30" r="15" s="1" spans="1:10">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2252,8 +2183,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row customHeight="1" ht="68.25" r="16" s="1" spans="1:10">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2284,8 +2215,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row customHeight="1" ht="30" r="17" s="1" spans="1:10">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2316,8 +2247,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2348,8 +2279,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row customHeight="1" ht="30" r="19" s="1" spans="1:10">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2380,8 +2311,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+    <row customHeight="1" ht="30" r="20" s="1" spans="1:10">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2412,8 +2343,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    <row customHeight="1" ht="30" r="21" s="1" spans="1:10">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2445,34 +2376,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="12.75"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="14.875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="24.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="17.5"/>
+    <col customWidth="1" max="7" min="7" style="1" width="32.625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="28.875"/>
+    <col customWidth="1" max="9" min="9" style="1" width="26.375"/>
+    <col customWidth="1" max="10" min="10" style="1" width="11.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="30.75" r="1" s="8" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2504,8 +2438,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="30" r="2" s="1" spans="1:10">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2536,8 +2470,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="60" r="3" s="1" spans="1:10">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2568,8 +2502,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="45" r="4" s="1" spans="1:10">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2600,8 +2534,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2632,8 +2566,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="45" r="6" s="1" spans="1:10">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2658,14 +2592,14 @@
         <v>114</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row customHeight="1" ht="45" r="7" s="1" spans="1:10">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2684,10 +2618,10 @@
         <v>99</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>79</v>
@@ -2696,8 +2630,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row customHeight="1" ht="45" r="8" s="1" spans="1:10">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2719,7 +2653,7 @@
         <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>83</v>
@@ -2728,12 +2662,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row customHeight="1" ht="45" r="9" s="1" spans="1:10">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -2748,10 +2682,10 @@
         <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>87</v>
@@ -2760,12 +2694,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row customHeight="1" ht="45" r="10" s="1" spans="1:10">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -2780,10 +2714,10 @@
         <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>87</v>
@@ -2792,12 +2726,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -2812,10 +2746,10 @@
         <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>93</v>
@@ -2824,12 +2758,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+    <row customHeight="1" ht="45" r="12" s="1" spans="1:10">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -2844,20 +2778,20 @@
         <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row customHeight="1" ht="45" r="13" s="1" spans="1:10">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2888,8 +2822,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+    <row customHeight="1" ht="60" r="14" s="1" spans="1:10">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2914,14 +2848,14 @@
         <v>105</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+    <row customHeight="1" ht="45" r="15" s="1" spans="1:10">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2952,8 +2886,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+    <row customHeight="1" ht="30" r="16" s="1" spans="1:10">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2984,8 +2918,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+    <row customHeight="1" ht="45" r="17" s="1" spans="1:10">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3010,14 +2944,14 @@
         <v>114</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+    <row customHeight="1" ht="45" r="18" s="1" spans="1:10">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -3036,10 +2970,10 @@
         <v>99</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>79</v>
@@ -3048,8 +2982,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+    <row customHeight="1" ht="45" r="19" s="1" spans="1:10">
+      <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -3071,7 +3005,7 @@
         <v>118</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>83</v>
@@ -3080,12 +3014,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+    <row customHeight="1" ht="45" r="20" s="1" spans="1:10">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
@@ -3100,24 +3034,24 @@
         <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+    <row customHeight="1" ht="45" r="21" s="1" spans="1:10">
+      <c r="A21" s="9" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -3132,10 +3066,10 @@
         <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>87</v>
@@ -3144,12 +3078,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+    <row customHeight="1" ht="30" r="22" s="1" spans="1:10">
+      <c r="A22" s="9" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -3164,10 +3098,10 @@
         <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>93</v>
@@ -3176,12 +3110,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row customHeight="1" ht="45" r="23" s="1" spans="1:10">
+      <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -3196,75 +3130,87 @@
         <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1">
+        <v>134</v>
+      </c>
+      <c r="B1" t="n">
         <v>17751810578</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -196,7 +196,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '75549.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '79553.00'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +211,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '76050.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '80054.00'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -247,7 +247,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '50904.00', 'type': '1', 'mobilephone': '17751810001'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '52920.00'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -304,13 +304,13 @@
     <t>{'code': '20118', 'data': None, 'msg': '请输入数字', 'status': 0}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '76550.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '77051.00', 'type': '1', 'mobilephone': '17751810000'}, 'msg': '充值成功', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '51408.00', 'type': '1', 'mobilephone': '17751810001'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '80554.00'}, 'msg': '充值成功', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '81055.00'}, 'msg': '充值成功', 'status': 1}</t>
+  </si>
+  <si>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '53424.00'}, 'msg': '充值成功', 'status': 1}</t>
   </si>
   <si>
     <t>不登录直接取现</t>
@@ -340,7 +340,7 @@
     <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499755.00', 'type': '1', 'mobilephone': '17751810779'}, 'msg': '取现成功', 'status': 1}</t>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499735.00'}, 'msg': '取现成功', 'status': 1}</t>
   </si>
   <si>
     <t>{"mobilephone":None,"amount":"5"}</t>
@@ -421,7 +421,7 @@
     <t>{'code': '20119', 'data': None, 'msg': '余额不足，请修改提现额度', 'status': 1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499750.00', 'type': '1', 'mobilephone': '17751810779'}, 'msg': '取现成功', 'status': 1}</t>
+    <t>{'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499730.00'}, 'msg': '取现成功', 'status': 1}</t>
   </si>
   <si>
     <t>${mobile}</t>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>caseId</t>
   </si>
@@ -196,7 +196,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '79553.00'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '83557.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +211,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '80054.00'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '84058.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -223,7 +223,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'code': '20103', 'data': None, 'msg': '手机号不能为空', 'status': 0}</t>
+    <t>{'msg': '手机号不能为空', 'code': '20103', 'status': 0, 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -235,7 +235,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'code': '20115', 'data': None, 'msg': '请输入金额', 'status': 0}</t>
+    <t>{'msg': '请输入金额', 'code': '20115', 'status': 0, 'data': None}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -247,7 +247,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '52920.00'}, 'msg': '充值成功', 'status': 1}</t>
+    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'id': 1115509, 'leaveamount': '54936.00', 'regtime': '2019-01-21 10:30:31.0', 'type': '1'}}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -259,120 +259,123 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
+    <t>{'msg': '手机号码格式不正确', 'code': '20109', 'status': 0, 'data': None}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"506.451"}</t>
+  </si>
+  <si>
+    <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
+  </si>
+  <si>
+    <t>{'msg': '输入金额的金额小数不能超过两位', 'code': '20116', 'status': 0, 'data': None}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数小于0</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"-507"}</t>
+  </si>
+  <si>
+    <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
+  </si>
+  <si>
+    <t>{'msg': '请输入范围在0到50万之间的正数金额', 'code': '20117', 'status': 0, 'data': None}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数大于500,000</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"508000"}</t>
+  </si>
+  <si>
+    <t>获取正确cookie,充值金额参数填入非数字</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810000", "amount":"sss"}</t>
+  </si>
+  <si>
+    <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
+  </si>
+  <si>
+    <t>{'msg': '请输入数字', 'code': '20118', 'status': 0, 'data': None}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '84558.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '85059.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'id': 1115509, 'leaveamount': '55440.00', 'regtime': '2019-01-21 10:30:31.0', 'type': '1'}}</t>
+  </si>
+  <si>
+    <t>不登录直接取现</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":"5"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
+  </si>
+  <si>
+    <t>{'msg': '抱歉，请先登录。', 'code': None, 'status': 0, 'data': None}</t>
+  </si>
+  <si>
+    <t>正常登录后取现(余额充足)</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
+  </si>
+  <si>
+    <t>{'msg': '取现成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'id': 1115661, 'leaveamount': '499715.00', 'regtime': '2019-01-21 18:01:06.0', 'type': '1'}}</t>
+  </si>
+  <si>
+    <t>{"mobilephone":None,"amount":"5"}</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
+  </si>
+  <si>
+    <t>取现金额为空</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"17751810779","amount":None}</t>
+  </si>
+  <si>
+    <t>{'msg': '请输入金额', 'status': 0, 'code': '20115', 'data': None}</t>
+  </si>
+  <si>
+    <t>取现的手机号码不存在</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
+  </si>
+  <si>
+    <t>{'msg': '此手机号对应的会员不存在', 'code': '20104', 'status': 1, 'data': None}</t>
+  </si>
+  <si>
+    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
+  </si>
+  <si>
     <t>{'code': '20109', 'data': None, 'msg': '手机号码格式不正确', 'status': 0}</t>
   </si>
   <si>
-    <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"506.451"}</t>
-  </si>
-  <si>
-    <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
-  </si>
-  <si>
-    <t>{'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位', 'status': 0}</t>
-  </si>
-  <si>
-    <t>获取正确cookie,充值金额参数小于0</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"-507"}</t>
-  </si>
-  <si>
-    <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
-  </si>
-  <si>
-    <t>{'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额', 'status': 0}</t>
-  </si>
-  <si>
-    <t>获取正确cookie,充值金额参数大于500,000</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"508000"}</t>
-  </si>
-  <si>
-    <t>获取正确cookie,充值金额参数填入非数字</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810000", "amount":"sss"}</t>
-  </si>
-  <si>
-    <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
-  </si>
-  <si>
-    <t>{'code': '20118', 'data': None, 'msg': '请输入数字', 'status': 0}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '80554.00'}, 'msg': '充值成功', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810000', 'type': '1', 'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115516, 'regname': '小蜜蜂', 'leaveamount': '81055.00'}, 'msg': '充值成功', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810001', 'type': '1', 'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'id': 1115509, 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '53424.00'}, 'msg': '充值成功', 'status': 1}</t>
-  </si>
-  <si>
-    <t>不登录直接取现</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>/member/withdraw</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":"5"}</t>
-  </si>
-  <si>
-    <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
-  </si>
-  <si>
-    <t>{'code': None, 'data': None, 'msg': '抱歉，请先登录。', 'status': 0}</t>
-  </si>
-  <si>
-    <t>正常登录后取现(余额充足)</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499735.00'}, 'msg': '取现成功', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone":None,"amount":"5"}</t>
-  </si>
-  <si>
-    <t>{'msg': '手机号不能为空', 'status': 0, 'code': '20103', 'data': None}</t>
-  </si>
-  <si>
-    <t>取现金额为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"17751810779","amount":None}</t>
-  </si>
-  <si>
-    <t>{'msg': '请输入金额', 'status': 0, 'code': '20115', 'data': None}</t>
-  </si>
-  <si>
-    <t>取现的手机号码不存在</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "13000001403", "amount": "5"}</t>
-  </si>
-  <si>
-    <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
-  </si>
-  <si>
-    <t>{'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
-  </si>
-  <si>
     <t>取现金额小数点大于2位</t>
   </si>
   <si>
@@ -418,10 +421,10 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'code': '20119', 'data': None, 'msg': '余额不足，请修改提现额度', 'status': 1}</t>
-  </si>
-  <si>
-    <t>{'code': '10001', 'data': {'mobilephone': '17751810779', 'type': '1', 'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1115661, 'regname': '小蜜蜂', 'leaveamount': '499730.00'}, 'msg': '取现成功', 'status': 1}</t>
+    <t>{'msg': '余额不足，请修改提现额度', 'code': '20119', 'status': 1, 'data': None}</t>
+  </si>
+  <si>
+    <t>{'msg': '取现成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'id': 1115661, 'leaveamount': '499710.00', 'regtime': '2019-01-21 18:01:06.0', 'type': '1'}}</t>
   </si>
   <si>
     <t>${mobile}</t>
@@ -2621,7 +2624,7 @@
         <v>116</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>79</v>
@@ -2635,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -2650,10 +2653,10 @@
         <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>83</v>
@@ -2667,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -2682,10 +2685,10 @@
         <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>87</v>
@@ -2699,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -2714,10 +2717,10 @@
         <v>99</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>87</v>
@@ -2731,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -2746,10 +2749,10 @@
         <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>93</v>
@@ -2763,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -2778,13 +2781,13 @@
         <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
@@ -2848,7 +2851,7 @@
         <v>105</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
@@ -2973,7 +2976,7 @@
         <v>116</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>79</v>
@@ -2987,7 +2990,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
@@ -3002,10 +3005,10 @@
         <v>99</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>83</v>
@@ -3019,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
@@ -3034,10 +3037,10 @@
         <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>87</v>
@@ -3051,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -3066,10 +3069,10 @@
         <v>99</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>87</v>
@@ -3083,7 +3086,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -3098,10 +3101,10 @@
         <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>93</v>
@@ -3115,7 +3118,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -3130,13 +3133,13 @@
         <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
@@ -3204,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" t="n">
         <v>17751810578</v>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>caseId</t>
   </si>
@@ -196,7 +196,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '83557.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
+    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '85559.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +211,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '84058.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
+    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '86060.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -223,7 +223,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'msg': '手机号不能为空', 'code': '20103', 'status': 0, 'data': None}</t>
+    <t>{'data': None, 'code': '20103', 'status': 0, 'msg': '手机号不能为空'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -235,7 +235,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'msg': '请输入金额', 'code': '20115', 'status': 0, 'data': None}</t>
+    <t>{'data': None, 'code': '20115', 'status': 0, 'msg': '请输入金额'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -247,7 +247,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'id': 1115509, 'leaveamount': '54936.00', 'regtime': '2019-01-21 10:30:31.0', 'type': '1'}}</t>
+    <t>{'data': {'mobilephone': '17751810001', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'type': '1', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '55944.00', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -259,7 +259,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '手机号码格式不正确', 'code': '20109', 'status': 0, 'data': None}</t>
+    <t>{'data': None, 'code': '20109', 'status': 0, 'msg': '手机号码格式不正确'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -271,7 +271,7 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '输入金额的金额小数不能超过两位', 'code': '20116', 'status': 0, 'data': None}</t>
+    <t>{'data': None, 'code': '20116', 'status': 0, 'msg': '输入金额的金额小数不能超过两位'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
@@ -283,7 +283,7 @@
     <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '请输入范围在0到50万之间的正数金额', 'code': '20117', 'status': 0, 'data': None}</t>
+    <t>{'data': None, 'code': '20117', 'status': 0, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
@@ -301,16 +301,16 @@
     <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '请输入数字', 'code': '20118', 'status': 0, 'data': None}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '84558.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'id': 1115516, 'leaveamount': '85059.00', 'regtime': '2019-01-21 10:35:36.0', 'type': '1'}}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'code': '10001', 'status': 1, 'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'id': 1115509, 'leaveamount': '55440.00', 'regtime': '2019-01-21 10:30:31.0', 'type': '1'}}</t>
+    <t>{'data': None, 'code': '20118', 'status': 0, 'msg': '请输入数字'}</t>
+  </si>
+  <si>
+    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '86560.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '87061.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>{'data': {'mobilephone': '17751810001', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'type': '1', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '56448.00', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>不登录直接取现</t>
@@ -328,7 +328,7 @@
     <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
-    <t>{'msg': '抱歉，请先登录。', 'code': None, 'status': 0, 'data': None}</t>
+    <t>{'data': None, 'code': None, 'status': 0, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
     <t>正常登录后取现(余额充足)</t>
@@ -340,7 +340,7 @@
     <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
   </si>
   <si>
-    <t>{'msg': '取现成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'id': 1115661, 'leaveamount': '499715.00', 'regtime': '2019-01-21 18:01:06.0', 'type': '1'}}</t>
+    <t>{'data': {'mobilephone': '17751810779', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '499705.00', 'regtime': '2019-01-21 18:01:06.0'}, 'code': '10001', 'status': 1, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>{"mobilephone":None,"amount":"5"}</t>
@@ -367,7 +367,7 @@
     <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{'msg': '此手机号对应的会员不存在', 'code': '20104', 'status': 1, 'data': None}</t>
+    <t>{'data': None, 'code': '20104', 'status': 1, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
     <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
@@ -421,10 +421,7 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'msg': '余额不足，请修改提现额度', 'code': '20119', 'status': 1, 'data': None}</t>
-  </si>
-  <si>
-    <t>{'msg': '取现成功', 'code': '10001', 'status': 1, 'data': {'regname': '小蜜蜂', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'id': 1115661, 'leaveamount': '499710.00', 'regtime': '2019-01-21 18:01:06.0', 'type': '1'}}</t>
+    <t>{'data': {'mobilephone': '17751810779', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '499700.00', 'regtime': '2019-01-21 18:01:06.0'}, 'code': '10001', 'status': 1, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>${mobile}</t>
@@ -846,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1363,7 +1360,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2787,7 +2784,7 @@
         <v>132</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
@@ -2851,7 +2848,7 @@
         <v>105</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
@@ -3139,7 +3136,7 @@
         <v>132</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
@@ -3207,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="n">
         <v>17751810578</v>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>caseId</t>
   </si>
@@ -196,7 +196,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '85559.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
+    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '113587.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +211,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '86060.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
+    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '114088.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -223,7 +223,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20103', 'status': 0, 'msg': '手机号不能为空'}</t>
+    <t>{'data': None, 'msg': '手机号不能为空', 'status': 0, 'code': '20103'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -235,7 +235,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20115', 'status': 0, 'msg': '请输入金额'}</t>
+    <t>{'data': None, 'msg': '请输入金额', 'status': 0, 'code': '20115'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -247,7 +247,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'data': {'mobilephone': '17751810001', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'type': '1', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '55944.00', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
+    <t>{'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'leaveamount': '70056.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -259,7 +259,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20109', 'status': 0, 'msg': '手机号码格式不正确'}</t>
+    <t>{'data': None, 'msg': '手机号码格式不正确', 'status': 0, 'code': '20109'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -271,7 +271,7 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20116', 'status': 0, 'msg': '输入金额的金额小数不能超过两位'}</t>
+    <t>{'data': None, 'msg': '输入金额的金额小数不能超过两位', 'status': 0, 'code': '20116'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
@@ -283,7 +283,7 @@
     <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20117', 'status': 0, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
+    <t>{'data': None, 'msg': '请输入范围在0到50万之间的正数金额', 'status': 0, 'code': '20117'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
@@ -301,16 +301,16 @@
     <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20118', 'status': 0, 'msg': '请输入数字'}</t>
-  </si>
-  <si>
-    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '86560.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>{'data': {'mobilephone': '17751810000', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '87061.00', 'regtime': '2019-01-21 10:35:36.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
-  </si>
-  <si>
-    <t>{'data': {'mobilephone': '17751810001', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'type': '1', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '56448.00', 'regtime': '2019-01-21 10:30:31.0'}, 'code': '10001', 'status': 1, 'msg': '充值成功'}</t>
+    <t>{'data': None, 'msg': '请输入数字', 'status': 0, 'code': '20118'}</t>
+  </si>
+  <si>
+    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '114588.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '115089.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'leaveamount': '70560.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>不登录直接取现</t>
@@ -328,7 +328,7 @@
     <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': None, 'status': 0, 'msg': '抱歉，请先登录。'}</t>
+    <t>{'data': None, 'msg': '抱歉，请先登录。', 'status': 0, 'code': None}</t>
   </si>
   <si>
     <t>正常登录后取现(余额充足)</t>
@@ -340,7 +340,7 @@
     <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
   </si>
   <si>
-    <t>{'data': {'mobilephone': '17751810779', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '499705.00', 'regtime': '2019-01-21 18:01:06.0'}, 'code': '10001', 'status': 1, 'msg': '取现成功'}</t>
+    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 18:01:06.0', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'leaveamount': '499565.00', 'type': '1'}, 'msg': '取现成功', 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>{"mobilephone":None,"amount":"5"}</t>
@@ -367,7 +367,7 @@
     <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{'data': None, 'code': '20104', 'status': 1, 'msg': '此手机号对应的会员不存在'}</t>
+    <t>{'data': None, 'msg': '此手机号对应的会员不存在', 'status': 1, 'code': '20104'}</t>
   </si>
   <si>
     <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
@@ -421,7 +421,10 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'data': {'mobilephone': '17751810779', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1', 'regname': '小蜜蜂', 'leaveamount': '499700.00', 'regtime': '2019-01-21 18:01:06.0'}, 'code': '10001', 'status': 1, 'msg': '取现成功'}</t>
+    <t>{'data': None, 'msg': '余额不足，请修改提现额度', 'status': 1, 'code': '20119'}</t>
+  </si>
+  <si>
+    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 18:01:06.0', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'leaveamount': '499560.00', 'type': '1'}, 'msg': '取现成功', 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>${mobile}</t>
@@ -843,15 +846,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1360,7 +1363,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2389,7 +2392,7 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2784,7 +2787,7 @@
         <v>132</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
@@ -2848,7 +2851,7 @@
         <v>105</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>13</v>
@@ -3136,7 +3139,7 @@
         <v>132</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>13</v>
@@ -3204,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" t="n">
         <v>17751810578</v>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -196,7 +196,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '113587.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
+    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '121595.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -211,7 +211,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '114088.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
+    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '122096.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -223,7 +223,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '手机号不能为空', 'status': 0, 'code': '20103'}</t>
+    <t>{'msg': '手机号不能为空', 'data': None, 'status': 0, 'code': '20103'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -235,7 +235,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '请输入金额', 'status': 0, 'code': '20115'}</t>
+    <t>{'msg': '请输入金额', 'data': None, 'status': 0, 'code': '20115'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -247,7 +247,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'leaveamount': '70056.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
+    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '74088.00', 'mobilephone': '17751810001', 'id': 1115509, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -259,7 +259,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '手机号码格式不正确', 'status': 0, 'code': '20109'}</t>
+    <t>{'msg': '手机号码格式不正确', 'data': None, 'status': 0, 'code': '20109'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -271,7 +271,7 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '输入金额的金额小数不能超过两位', 'status': 0, 'code': '20116'}</t>
+    <t>{'msg': '输入金额的金额小数不能超过两位', 'data': None, 'status': 0, 'code': '20116'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
@@ -283,7 +283,7 @@
     <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '请输入范围在0到50万之间的正数金额', 'status': 0, 'code': '20117'}</t>
+    <t>{'msg': '请输入范围在0到50万之间的正数金额', 'data': None, 'status': 0, 'code': '20117'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
@@ -301,16 +301,16 @@
     <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '请输入数字', 'status': 0, 'code': '20118'}</t>
-  </si>
-  <si>
-    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '114588.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 10:35:36.0', 'id': 1115516, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810000', 'leaveamount': '115089.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'data': {'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'regtime': '2019-01-21 10:30:31.0', 'id': 1115509, 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'mobilephone': '17751810001', 'leaveamount': '70560.00', 'type': '1'}, 'msg': '充值成功', 'status': 1, 'code': '10001'}</t>
+    <t>{'msg': '请输入数字', 'data': None, 'status': 0, 'code': '20118'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '122596.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '123097.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '74592.00', 'mobilephone': '17751810001', 'id': 1115509, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>不登录直接取现</t>
@@ -328,7 +328,7 @@
     <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '抱歉，请先登录。', 'status': 0, 'code': None}</t>
+    <t>{'msg': '抱歉，请先登录。', 'data': None, 'status': 0, 'code': None}</t>
   </si>
   <si>
     <t>正常登录后取现(余额充足)</t>
@@ -340,7 +340,7 @@
     <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
   </si>
   <si>
-    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 18:01:06.0', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'leaveamount': '499565.00', 'type': '1'}, 'msg': '取现成功', 'status': 1, 'code': '10001'}</t>
+    <t>{'msg': '取现成功', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '499525.00', 'mobilephone': '17751810779', 'id': 1115661, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>{"mobilephone":None,"amount":"5"}</t>
@@ -367,7 +367,7 @@
     <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '此手机号对应的会员不存在', 'status': 1, 'code': '20104'}</t>
+    <t>{'msg': '此手机号对应的会员不存在', 'data': None, 'status': 1, 'code': '20104'}</t>
   </si>
   <si>
     <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
@@ -421,10 +421,10 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'data': None, 'msg': '余额不足，请修改提现额度', 'status': 1, 'code': '20119'}</t>
-  </si>
-  <si>
-    <t>{'data': {'regname': '小蜜蜂', 'regtime': '2019-01-21 18:01:06.0', 'id': 1115661, 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'mobilephone': '17751810779', 'leaveamount': '499560.00', 'type': '1'}, 'msg': '取现成功', 'status': 1, 'code': '10001'}</t>
+    <t>{'msg': '余额不足，请修改提现额度', 'data': None, 'status': 1, 'code': '20119'}</t>
+  </si>
+  <si>
+    <t>{'msg': '取现成功', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '499520.00', 'mobilephone': '17751810779', 'id': 1115661, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
   </si>
   <si>
     <t>${mobile}</t>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bidLoan" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="init" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>caseId</t>
   </si>
@@ -425,6 +424,87 @@
   </si>
   <si>
     <t>{'msg': '取现成功', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '499520.00', 'mobilephone': '17751810779', 'id': 1115661, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>管理员正常登录</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${admin_user}","pwd":"${admin_pwd}"}</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"memberId":"${loan_member_id}","title":"试试人品行不行，借个2W玩玩","amount":20000,"loanRate":"12.0","loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+  </si>
+  <si>
+    <t>管理员审核</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":4}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>投资人正常登录</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>/member/bidLoan</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"100"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
+  </si>
+  <si>
+    <t>投资人投资不输入金额</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":""}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
+  </si>
+  <si>
+    <t>投资人投资输入负数</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"-100"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
   </si>
   <si>
     <t>${mobile}</t>
@@ -435,7 +515,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -499,6 +579,13 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -508,12 +595,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -522,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +653,18 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +967,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3157,37 +3271,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="4" min="4" style="1" width="30"/>
+    <col customWidth="1" max="7" min="7" style="1" width="38.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
+      <c r="A2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="3" s="1" spans="1:8">
+      <c r="A3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="37.5" r="4" s="1" spans="1:8">
+      <c r="A4" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
+      <c r="A5" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="65.25" r="6" s="1" spans="1:8">
+      <c r="A6" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="62.25" r="7" s="1" spans="1:8">
+      <c r="A7" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="70.5" r="8" s="1" spans="1:8">
+      <c r="A8" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>11007</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3207,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B1" t="n">
         <v>17751810578</v>

--- a/datas/user_test.xlsx
+++ b/datas/user_test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9345" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9347" windowWidth="23040"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="init" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>caseId</t>
   </si>
@@ -195,7 +195,7 @@
     <t>{"code":"10001", "msg":"充值成功", "data":{"type":"1", "mobilephone":"17751810000"}, "status":1}</t>
   </si>
   <si>
-    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '121595.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '125599.00', 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'id': 1115516, 'mobilephone': '17751810000', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取非本人cookie，然后正常充值</t>
@@ -210,7 +210,7 @@
     <t>{"status":1, "msg":"充值成功", "code":"10001", "data":{"mobilephone":"17751810000", "type":"1"}}</t>
   </si>
   <si>
-    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '122096.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '126100.00', 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'id': 1115516, 'mobilephone': '17751810000', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取正确cookie,手机号为空</t>
@@ -222,7 +222,7 @@
     <t>{"code":"20103", "data":null, "msg":"手机号不能为空", "status":0}</t>
   </si>
   <si>
-    <t>{'msg': '手机号不能为空', 'data': None, 'status': 0, 'code': '20103'}</t>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额为空</t>
@@ -234,7 +234,7 @@
     <t>{"code":"20115", "data":null, "msg":"请输入金额", "status":0}</t>
   </si>
   <si>
-    <t>{'msg': '请输入金额', 'data': None, 'status': 0, 'code': '20115'}</t>
+    <t>{'status': 0, 'code': '20115', 'data': None, 'msg': '请输入金额'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数与cookie不对应</t>
@@ -246,7 +246,7 @@
     <t>{"msg":"充值成功", "code":"10001", "data":{ "type":"1",  "mobilephone":"17751810001"}, "status":1}</t>
   </si>
   <si>
-    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '74088.00', 'mobilephone': '17751810001', 'id': 1115509, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '76104.00', 'regtime': '2019-01-21 10:30:31.0', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'id': 1115509, 'mobilephone': '17751810001', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'type': '1'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>获取正确cookie,号码参数格式不正确</t>
@@ -258,7 +258,7 @@
     <t>{"status":0, "msg":"手机号码格式不正确", "code":"20109", "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '手机号码格式不正确', 'data': None, 'status': 0, 'code': '20109'}</t>
+    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小数点后数字超过两位</t>
@@ -270,7 +270,7 @@
     <t>{"code":"20116", "status":0, "msg":"输入金额的金额小数不能超过两位", "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '输入金额的金额小数不能超过两位', 'data': None, 'status': 0, 'code': '20116'}</t>
+    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数小于0</t>
@@ -282,7 +282,7 @@
     <t>{"code":"20117", "msg":"请输入范围在0到50万之间的正数金额", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '请输入范围在0到50万之间的正数金额', 'data': None, 'status': 0, 'code': '20117'}</t>
+    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
   </si>
   <si>
     <t>获取正确cookie,充值金额参数大于500,000</t>
@@ -300,16 +300,16 @@
     <t>{"code":"20118", "msg":"请输入数字", "status":0, "data":null}</t>
   </si>
   <si>
-    <t>{'msg': '请输入数字', 'data': None, 'status': 0, 'code': '20118'}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '122596.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:35:36.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '123097.00', 'mobilephone': '17751810000', 'id': 1115516, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
-  </si>
-  <si>
-    <t>{'msg': '充值成功', 'data': {'regtime': '2019-01-21 10:30:31.0', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'leaveamount': '74592.00', 'mobilephone': '17751810001', 'id': 1115509, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+    <t>{'status': 0, 'code': '20118', 'data': None, 'msg': '请输入数字'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '126600.00', 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'id': 1115516, 'mobilephone': '17751810000', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1'}, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '127101.00', 'regtime': '2019-01-21 10:35:36.0', 'regname': '小蜜蜂', 'id': 1115516, 'mobilephone': '17751810000', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1'}, 'msg': '充值成功'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '76608.00', 'regtime': '2019-01-21 10:30:31.0', 'regname': 'å¤\x9cé\x9b¨å£°ç\x83¦', 'id': 1115509, 'mobilephone': '17751810001', 'pwd': 'F1887D3F9E6EE7A32FE5E76F4AB80D63', 'type': '1'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>不登录直接取现</t>
@@ -327,7 +327,7 @@
     <t>{'status': 0, 'data': None, 'code': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
-    <t>{'msg': '抱歉，请先登录。', 'data': None, 'status': 0, 'code': None}</t>
+    <t>{'status': 0, 'code': None, 'data': None, 'msg': '抱歉，请先登录。'}</t>
   </si>
   <si>
     <t>正常登录后取现(余额充足)</t>
@@ -339,7 +339,7 @@
     <t>{'status': 1, 'code': '10001', 'msg': '取现成功', 'data': {'type': '1','mobilephone':'17751810779'}}</t>
   </si>
   <si>
-    <t>{'msg': '取现成功', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '499525.00', 'mobilephone': '17751810779', 'id': 1115661, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '499505.00', 'regtime': '2019-01-21 18:01:06.0', 'regname': '小蜜蜂', 'id': 1115661, 'mobilephone': '17751810779', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1'}, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>{"mobilephone":None,"amount":"5"}</t>
@@ -366,9 +366,6 @@
     <t>{'status': 1, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
-    <t>{'msg': '此手机号对应的会员不存在', 'data': None, 'status': 1, 'code': '20104'}</t>
-  </si>
-  <si>
     <t>{"mobilephone": "1300s0001403", "amount": "5"}</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>{"mobilephone":"17751810779","amount":"0.011"}</t>
   </si>
   <si>
-    <t>{'status': 0, 'code': '20116', 'data': None, 'msg': '输入金额的金额小数不能超过两位'}</t>
-  </si>
-  <si>
     <t>取现金额为负数</t>
   </si>
   <si>
@@ -420,10 +414,10 @@
     <t>{'data': None, 'code': '20119', 'status': 1, 'msg': '余额不足，请修改提现额度'}</t>
   </si>
   <si>
-    <t>{'msg': '余额不足，请修改提现额度', 'data': None, 'status': 1, 'code': '20119'}</t>
-  </si>
-  <si>
-    <t>{'msg': '取现成功', 'data': {'regtime': '2019-01-21 18:01:06.0', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'regname': '小蜜蜂', 'leaveamount': '499520.00', 'mobilephone': '17751810779', 'id': 1115661, 'type': '1'}, 'status': 1, 'code': '10001'}</t>
+    <t>{'status': 1, 'code': '20119', 'data': None, 'msg': '余额不足，请修改提现额度'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'leaveamount': '499500.00', 'regtime': '2019-01-21 18:01:06.0', 'regname': '小蜜蜂', 'id': 1115661, 'mobilephone': '17751810779', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'type': '1'}, 'msg': '取现成功'}</t>
   </si>
   <si>
     <t>case_id</t>
@@ -441,42 +435,6 @@
     <t>TestResult</t>
   </si>
   <si>
-    <t>管理员正常登录</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${admin_user}","pwd":"${admin_pwd}"}</t>
-  </si>
-  <si>
-    <t>管理员加标</t>
-  </si>
-  <si>
-    <t>/loan/add</t>
-  </si>
-  <si>
-    <t>{"memberId":"${loan_member_id}","title":"试试人品行不行，借个2W玩玩","amount":20000,"loanRate":"12.0","loanTerm":3,"loanDateType":0,"repaymemtWay":11,"biddingDays":5}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
-  </si>
-  <si>
-    <t>管理员审核</t>
-  </si>
-  <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
-    <t>{"id":"${loan_id}","status":4}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
-  </si>
-  <si>
-    <t>投资人正常登录</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"${normal_user}","pwd":"${normal_pwd}"}</t>
-  </si>
-  <si>
     <t>投资人正常投资</t>
   </si>
   <si>
@@ -492,7 +450,7 @@
     <t>投资人投资不输入金额</t>
   </si>
   <si>
-    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":""}</t>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":None}</t>
   </si>
   <si>
     <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
@@ -505,6 +463,45 @@
   </si>
   <si>
     <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
+  </si>
+  <si>
+    <t>投资人投资输入不能被100整除的数</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"101"}</t>
+  </si>
+  <si>
+    <t>投资人密码小于6位</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"111","loanId":"${loan_id}","amount":"101"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
+  </si>
+  <si>
+    <t>投资人密码大于18位</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"1111111111111111112","loanId":"${loan_id}","amount":"101"}</t>
+  </si>
+  <si>
+    <t>投资人member_id非法</t>
+  </si>
+  <si>
+    <t>{"memberId":"-5","password":"1111111112","loanId":"${loan_id}","amount":"101"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11004","data":null,"msg":"参数错误，memberId必须是大于0的正整数"}</t>
+  </si>
+  <si>
+    <t>投资人Loan_id非法</t>
+  </si>
+  <si>
+    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"-5","amount":"200"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
   </si>
   <si>
     <t>${mobile}</t>
@@ -514,8 +511,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,14 +526,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -544,22 +555,126 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
+      <charset val="134"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -568,34 +683,229 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -618,57 +928,350 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="29" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -955,12 +1558,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -971,513 +1573,513 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="21"/>
-    <col customWidth="1" max="4" min="4" style="1" width="30.375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="30.3796296296296"/>
     <col customWidth="1" max="5" min="5" style="1" width="40.25"/>
     <col customWidth="1" max="6" min="6" style="1" width="24.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="25.125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="18.625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="25.1296296296296"/>
+    <col customWidth="1" max="8" min="8" style="1" width="18.6296296296296"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="3" s="1" spans="1:8">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" s="1" spans="1:8">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="5" s="1" spans="1:8">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="6" s="1" spans="1:8">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="1" spans="1:8">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="8" s="1" spans="1:8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="9" s="1" spans="1:8">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="10" s="1" spans="1:8">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="11" s="1" spans="1:8">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="12" s="1" spans="1:8">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="13" s="1" spans="1:8">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="14" s="1" spans="1:8">
-      <c r="A14" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="15" s="1" spans="1:8">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="16" s="1" spans="1:8">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="17" s="1" spans="1:8">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="1" spans="1:8">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="19" s="1" spans="1:8">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1496,298 +2098,298 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="19"/>
-    <col customWidth="1" max="4" min="4" style="1" width="41.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="30.875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="52.875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="41.6296296296296"/>
+    <col customWidth="1" max="5" min="5" style="1" width="30.8796296296296"/>
+    <col customWidth="1" max="6" min="6" style="1" width="52.8796296296296"/>
     <col customWidth="1" max="7" min="7" style="1" width="46.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="42.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="3" s="1" spans="1:8">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="4" s="1" spans="1:8">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="6" s="1" spans="1:8">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="7" s="1" spans="1:8">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="8" s="1" spans="1:8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="9" s="1" spans="1:8">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="10" s="1" spans="1:8">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="11" s="1" spans="1:8">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1809,686 +2411,686 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="22.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="28.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="29.875"/>
-    <col customWidth="1" max="6" min="6" style="7" width="29.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="44.125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="28.3796296296296"/>
+    <col customWidth="1" max="5" min="5" style="1" width="29.8796296296296"/>
+    <col customWidth="1" max="6" min="6" style="13" width="29.1296296296296"/>
+    <col customWidth="1" max="7" min="7" style="1" width="44.1296296296296"/>
     <col customWidth="1" max="8" min="8" style="1" width="56.75"/>
     <col customWidth="1" max="9" min="9" style="1" width="27.75"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="14.25" r="1" s="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="66" r="2" s="1" spans="1:10">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="90" r="3" s="1" spans="1:10">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="4" s="1" spans="1:10">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="105" r="6" s="1" spans="1:10">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="7" s="1" spans="1:10">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="9" s="1" spans="1:10">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="10" s="1" spans="1:10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="90" r="12" s="1" spans="1:10">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="49.5" r="13" s="1" spans="1:10">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="14" s="1" spans="1:10">
-      <c r="A14" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="15" s="1" spans="1:10">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="68.25" r="16" s="1" spans="1:10">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="17" s="1" spans="1:10">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="19" s="1" spans="1:10">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="20" s="1" spans="1:10">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="21" s="1" spans="1:10">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2510,758 +3112,758 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="12.75"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.875"/>
-    <col customWidth="1" max="4" min="4" style="1" width="14.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="24.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.8796296296296"/>
+    <col customWidth="1" max="4" min="4" style="1" width="14.8796296296296"/>
+    <col customWidth="1" max="5" min="5" style="1" width="24.3796296296296"/>
     <col customWidth="1" max="6" min="6" style="1" width="17.5"/>
-    <col customWidth="1" max="7" min="7" style="1" width="32.625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="28.875"/>
-    <col customWidth="1" max="9" min="9" style="1" width="26.375"/>
-    <col customWidth="1" max="10" min="10" style="1" width="11.875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="32.6296296296296"/>
+    <col customWidth="1" max="8" min="8" style="1" width="28.8796296296296"/>
+    <col customWidth="1" max="9" min="9" style="1" width="26.3796296296296"/>
+    <col customWidth="1" max="10" min="10" style="1" width="11.8796296296296"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="30.75" r="1" s="8" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="2" s="1" spans="1:10">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="60" r="3" s="1" spans="1:10">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="4" s="1" spans="1:10">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="5" s="1" spans="1:10">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="45" r="6" s="1" spans="1:10">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="7" s="1" spans="1:10">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="7" s="1" spans="1:10">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="H7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="8" s="1" spans="1:10">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="9" s="1" spans="1:10">
+      <c r="A9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="10" s="1" spans="1:10">
+      <c r="A10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="12" s="1" spans="1:10">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="13" s="1" spans="1:10">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="60" r="14" s="1" spans="1:10">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="15" s="1" spans="1:10">
+      <c r="A15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="16" s="1" spans="1:10">
+      <c r="A16" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="17" s="1" spans="1:10">
+      <c r="A17" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="18" s="1" spans="1:10">
+      <c r="A18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F18" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="19" s="1" spans="1:10">
+      <c r="A19" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="8" s="1" spans="1:10">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="H19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="20" s="1" spans="1:10">
+      <c r="A20" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G20" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="9" s="1" spans="1:10">
-      <c r="A9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="I20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="21" s="1" spans="1:10">
+      <c r="A21" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="H21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="10" s="1" spans="1:10">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="J21" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="22" s="1" spans="1:10">
+      <c r="A22" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G22" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="11" s="1" spans="1:10">
-      <c r="A11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="I22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="23" s="1" spans="1:10">
+      <c r="A23" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F23" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G23" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="12" s="1" spans="1:10">
-      <c r="A12" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="H23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="I23" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="13" s="1" spans="1:10">
-      <c r="A13" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="60" r="14" s="1" spans="1:10">
-      <c r="A14" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="15" s="1" spans="1:10">
-      <c r="A15" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="16" s="1" spans="1:10">
-      <c r="A16" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="17" s="1" spans="1:10">
-      <c r="A17" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="18" s="1" spans="1:10">
-      <c r="A18" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="19" s="1" spans="1:10">
-      <c r="A19" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="20" s="1" spans="1:10">
-      <c r="A20" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="21" s="1" spans="1:10">
-      <c r="A21" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="22" s="1" spans="1:10">
-      <c r="A22" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="45" r="23" s="1" spans="1:10">
-      <c r="A23" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="10" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3271,229 +3873,258 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="4" min="4" style="1" width="30"/>
-    <col customWidth="1" max="7" min="7" style="1" width="38.5"/>
+    <col customWidth="1" max="3" min="1" style="2" width="9"/>
+    <col customWidth="1" max="4" min="4" style="3" width="30"/>
+    <col customWidth="1" max="6" min="5" style="2" width="9"/>
+    <col customWidth="1" max="7" min="7" style="3" width="38.5"/>
+    <col customWidth="1" max="16384" min="8" style="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+    <row customHeight="1" ht="28.8" r="1" s="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="65" r="2" s="1" spans="1:8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="81" r="3" s="1" spans="1:8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>11003</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="59" r="4" s="1" spans="1:8">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="B4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row customHeight="1" ht="48.75" r="2" s="1" spans="1:8">
-      <c r="A2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="81" r="3" s="1" spans="1:8">
-      <c r="A3" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="37.5" r="4" s="1" spans="1:8">
-      <c r="A4" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>11007</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57.6" r="5" s="1" spans="1:8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="C5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="5" s="1" spans="1:8">
-      <c r="A5" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>11007</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57.6" r="6" s="1" spans="1:8">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="65.25" r="6" s="1" spans="1:8">
-      <c r="A6" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>11006</v>
+      </c>
+      <c r="G6" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57.6" r="7" s="1" spans="1:8">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="C7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>11006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57.6" r="8" s="1" spans="1:8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="62.25" r="7" s="1" spans="1:8">
-      <c r="A7" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>11004</v>
+      </c>
+      <c r="G8" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>11003</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57.6" r="9" s="1" spans="1:8">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="70.5" r="8" s="1" spans="1:8">
-      <c r="A8" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>11009</v>
+      </c>
+      <c r="G9" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>11007</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3509,7 +4140,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="10.25"/>
     <col customWidth="1" max="2" min="2" style="1" width="12.75"/>
@@ -3517,7 +4148,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" t="n">
         <v>17751810578</v>
